--- a/biology/Zoologie/Adonea_fimbriata/Adonea_fimbriata.xlsx
+++ b/biology/Zoologie/Adonea_fimbriata/Adonea_fimbriata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adonea fimbriata est une espèce d'araignées aranéomorphes de la famille des Eresidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adonea fimbriata est une espèce d'araignées aranéomorphes de la famille des Eresidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Algérie, en Tunisie, en Grèce et en Israël[1],[2]..
-Sa présence est incertaine au Maroc[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Algérie, en Tunisie, en Grèce et en Israël,..
+Sa présence est incertaine au Maroc.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle syntype mesure 12 mm[3].
-La femelle décrite par Simon en 1876 sous le nom Adonea capitata mesure 16 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle syntype mesure 12 mm.
+La femelle décrite par Simon en 1876 sous le nom Adonea capitata mesure 16 mm.
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Simon en 1873.
-Adonea capitata[4] a été placée en synonymie par Simon en 1892[5].
-Storkaniella janinensis[6] a été placée en synonymie par Lehtinen en 1967[7].
+Adonea capitata a été placée en synonymie par Simon en 1892.
+Storkaniella janinensis a été placée en synonymie par Lehtinen en 1967.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1873 : « Aranéides nouveaux ou peu connus du midi de l'Europe. (2e mémoire). » Mémoires de la Société royale des sciences de Liège, sér. 2, vol. 5, p. 187-351, réimprimé seul p. 1-174 (texte intégral).</t>
         </is>
